--- a/Método de corrección/medidassimulacion.xlsx
+++ b/Método de corrección/medidassimulacion.xlsx
@@ -19,6 +19,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -150,7 +151,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -160,6 +161,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -236,6 +240,63 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$G$3:$G$8</c:f>
@@ -297,8 +358,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -480,7 +542,6 @@
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout/>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -569,10 +630,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -603,10 +661,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
+      <c14:style val="108"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="5"/>
+      <c:style val="8"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -633,7 +691,7 @@
           <c:spPr>
             <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -644,17 +702,75 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent6"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent6"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$G$13:$G$18</c:f>
@@ -716,8 +832,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -973,10 +1090,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1007,10 +1121,10 @@
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="105"/>
+      <c14:style val="106"/>
     </mc:Choice>
     <mc:Fallback>
-      <c:style val="5"/>
+      <c:style val="6"/>
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
@@ -1035,9 +1149,9 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="22225" cap="rnd">
+            <a:ln w="22225" cap="rnd" cmpd="sng">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:round/>
             </a:ln>
@@ -1048,17 +1162,75 @@
             <c:size val="6"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent3"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
                 <a:round/>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="85000"/>
+                        <a:lumOff val="15000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="es-CO"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="t"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:layout/>
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Hoja1!$G$23:$G$27</c:f>
@@ -1114,8 +1286,9 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
+          <c:showVal val="1"/>
           <c:showCatName val="0"/>
           <c:showSerName val="0"/>
           <c:showPercent val="0"/>
@@ -1411,10 +1584,7 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
+        <a:schemeClr val="tx1"/>
       </a:solidFill>
       <a:round/>
     </a:ln>
@@ -1445,14 +1615,14 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="19">
+  <a:schemeClr val="accent6"/>
 </cs:colorStyle>
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="16">
-  <a:schemeClr val="accent3"/>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="withinLinear" id="17">
+  <a:schemeClr val="accent4"/>
 </cs:colorStyle>
 </file>
 
@@ -3054,15 +3224,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>304799</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>109537</xdr:rowOff>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>52387</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3084,15 +3254,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>409574</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>61912</xdr:rowOff>
+      <xdr:colOff>314324</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
-      <xdr:colOff>114299</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>138112</xdr:rowOff>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6422,11 +6592,11 @@
         <v>0.98673786460671975</v>
       </c>
       <c r="C209" s="3">
-        <f t="shared" ref="C209:D209" si="0">AVERAGE(C2:C208)</f>
+        <f>AVERAGE(C2:C208)</f>
         <v>95.887652807770408</v>
       </c>
       <c r="D209" s="3">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(D2:D208)</f>
         <v>28.839521422634462</v>
       </c>
     </row>
@@ -6436,11 +6606,11 @@
         <v>5.8768968392691415E-3</v>
       </c>
       <c r="C210" s="3">
-        <f t="shared" ref="C210:D210" si="1">_xlfn.STDEV.S(C2:C209)</f>
+        <f>_xlfn.STDEV.S(C2:C209)</f>
         <v>54.500487337988375</v>
       </c>
       <c r="D210" s="3">
-        <f t="shared" si="1"/>
+        <f>_xlfn.STDEV.S(D2:D209)</f>
         <v>2.3663467002222429</v>
       </c>
     </row>
@@ -6456,15 +6626,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H27"/>
+  <dimension ref="A2:R27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C25" workbookViewId="0">
-      <selection activeCell="R41" sqref="R41"/>
+    <sheetView tabSelected="1" topLeftCell="E29" workbookViewId="0">
+      <selection activeCell="T47" sqref="T47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="10" max="18" width="11.42578125" style="7"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -6784,6 +6955,9 @@
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="J1:R1048576"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
